--- a/output.xlsx
+++ b/output.xlsx
@@ -16,6 +16,14 @@
     <sheet name="memo_동휘5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="read_article_동휘5" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="feedback_동휘5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="visit_문지연선생" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="memo_문지연선생" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="read_article_문지연선생" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="feedback_문지연선생" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="visit_민규" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="memo_민규" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="read_article_민규" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="feedback_민규" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,6 +453,610 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>글3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:40:26.132Z</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:40:28.376Z</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>글4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:42:24.856Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:42:28.605Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>글3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:42:32.410Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:42:33.960Z</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>author_info_clicked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>글3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>글4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>글3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>글4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>글7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:57:28.607Z</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:57:32.224Z</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>글1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:57:34.385Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:57:37.148Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>글1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:57:34.385Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-11-25T17:57:40.826Z</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>author_info_clicked</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>글1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>굿입니다요</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,11 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="visit_동휘" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="memo_동휘" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="read_article_동휘" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="feedback_동휘" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="admin" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,25 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,299 +434,280 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>article_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>start_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>end_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>글1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-11-25T18:02:50.776Z</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-11-25T18:02:56.766Z</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>글2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-11-25T18:02:59.619Z</t>
+          <t>2023-11-29T13:42:26.633Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-11-25T18:03:07.303Z</t>
+          <t>2023-11-29T13:42:34.501Z</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7684</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>글3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-11-25T18:03:12.011Z</t>
+          <t>2023-11-29T13:42:37.432Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-11-25T18:03:16.294Z</t>
+          <t>2023-11-29T13:42:38.913Z</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4283</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>memo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>article_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>글2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>메모2번째</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-11-25 18:03:05.170198</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-11-29 13:42:32.417572</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>read_article</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>article_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>author_info_clicked</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>글2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>article_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>feedback</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>글2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ㄱ</t>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dd</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>visit</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,6 +476,21 @@
           <t>duration</t>
         </is>
       </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -481,21 +501,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-11-29T13:42:26.633Z</t>
+          <t>2023-11-30T02:38:02.866Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-11-29T13:42:34.501Z</t>
+          <t>2023-11-30T02:38:05.019Z</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7868</v>
+        <v>2153</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>제목1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>내용1</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -507,84 +540,226 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-11-29T13:42:37.432Z</t>
+          <t>2023-11-30T02:38:26.629Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-11-29T13:42:38.913Z</t>
+          <t>2023-11-30T02:38:38.400Z</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1481</v>
+        <v>11771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>두번째 글</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">두번째 글 내용 수정해보겠습니다. 
+엔터 두번
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-11-30T02:38:26.629Z</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-11-30T02:38:38.401Z</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>11772</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>제목3</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>내용3</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>memo</t>
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-11-30T02:39:33.474Z</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-11-30T02:39:34.658Z</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1184</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>제목4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>내용4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>article_id</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-11-30T02:39:35.819Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-11-30T02:39:40.582Z</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4763</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>제목5</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>내용5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>asdfasdf</t>
+          <t>2023-11-30T02:39:46.269Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-11-29 13:42:32.417572</t>
+          <t>2023-11-30T02:39:51.462Z</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>5193</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>제목6</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>내용6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>제목7</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>내용7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>read_article</t>
+          <t>memo</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>제목8</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>내용8</t>
         </is>
       </c>
     </row>
@@ -606,7 +781,25 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>author_info_clicked</t>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>제목9</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ㅇㅇ</t>
         </is>
       </c>
     </row>
@@ -619,12 +812,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>리얼리</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-11-30 02:38:31.071985</t>
         </is>
       </c>
     </row>
@@ -637,77 +835,202 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>feedback</t>
+          <t>와 이거 대박이네</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-11-30 02:38:35.302098</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ㅇㅇㅇㅇ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-11-30 02:39:49.222957</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>read_article</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>article_id</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>feedback</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>dd</t>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>author_info_clicked</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>2</v>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>dd</t>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ㅇㅇ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ㅇㅇ</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="admin" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,364 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-12-01T02:30:57.609Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-12-01T02:31:08.485Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10876</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>제목1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>내용1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-12-01T02:39:02.010Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-12-01T02:39:07.974Z</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5964</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>제목2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>내용2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>제목3</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>내용3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>read_article</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>제목4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>내용4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>author_info_clicked</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>제목5</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>내용5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>제목6</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>내용6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>제목7</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>내용7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>제목8</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>내용8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ㅇㅇ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="admin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="aaa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="admin" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="kijunlee" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="leekijun" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mun" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="munji" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="munjimuji" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="seyeon" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="땡땡" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="문문문" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="문지연" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="지연" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,40 +506,829 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-12-16T07:43:36.896Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-12-16T07:43:37.620Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>724</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-12-16T07:43:38.605Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-12-16T07:43:40.444Z</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1839</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>read_article</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>author_info_clicked</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="J1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="J1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="J1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="J1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L172"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-12-01T02:30:57.609Z</t>
+          <t>2023-12-01T03:49:16.142Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-12-01T02:31:08.485Z</t>
+          <t>2023-12-01T03:49:45.107Z</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10876</v>
+        <v>28965</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>제목1</t>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>내용1</t>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -540,33 +1341,4244 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-12-01T02:39:02.010Z</t>
+          <t>2023-12-01T03:51:38.815Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-12-01T02:39:07.974Z</t>
+          <t>2023-12-01T03:51:50.263Z</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5964</v>
+        <v>11448</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>제목2</t>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>내용2</t>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-12-01T03:52:02.906Z</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-12-01T06:04:04.876Z</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7921970</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-12-01T06:04:04.982Z</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-12-01T06:04:09.472Z</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4490</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-12-04T11:26:32.820Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-12-04T11:26:48.397Z</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>15577</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-12-04T11:27:07.028Z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-12-04T11:27:19.576Z</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>12548</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-12-04T11:27:19.651Z</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-12-04T11:27:22.263Z</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-12-08T11:56:20.671Z</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-12-08T11:56:39.760Z</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>19089</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-12-08T11:56:41.592Z</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-12-08T11:56:45.181Z</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-12-08T11:56:47.764Z</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-12-08T11:56:49.939Z</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-12-08T12:14:25.733Z</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-12-08T12:14:27.078Z</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-12-08T12:14:32.654Z</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-12-08T12:14:43.162Z</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10508</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-12-09T13:41:34.737Z</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-12-09T13:41:47.964Z</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>13227</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-12-09T13:41:57.361Z</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-12-10T06:40:38.486Z</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>61121125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:14:57.371Z</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:15:27.172Z</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>29801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:16:01.131Z</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:16:03.105Z</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:19:16.153Z</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:19:28.086Z</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>11933</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:20:29.049Z</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:20:44.288Z</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>15239</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:27:40.019Z</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:27:46.980Z</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:29:55.532Z</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:30:19.430Z</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>23898</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:31:32.131Z</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:31:34.201Z</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:32:21.356Z</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:32:26.564Z</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:43:29.876Z</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:43:34.442Z</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:47:26.620Z</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-12-16T06:47:40.942Z</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>14322</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-12-16T13:35:46.879Z</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-12-16T13:36:10.883Z</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>24004</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-12-16T13:36:27.760Z</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-12-16T13:36:35.466Z</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>7706</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-12-18T11:59:09.071Z</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-12-18T11:59:11.723Z</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:01:34.554Z</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:02:53.820Z</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>79266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:04:04.992Z</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:04:13.521Z</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:05:24.443Z</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:05:38.952Z</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>14509</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:05:40.337Z</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:05:43.403Z</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:06:22.553Z</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-12-18T12:07:31.655Z</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>69102</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:41:53.451Z</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:43:23.045Z</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>89594</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:44:02.233Z</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:44:09.361Z</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:44:18.422Z</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:45:52.759Z</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>94337</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-12-21T09:15:33.712Z</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-12-21T09:15:34.747Z</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-12-21T09:15:36.171Z</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-12-21T09:15:39.597Z</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-12-21T10:01:10.867Z</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-12-21T13:45:01.036Z</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>13430169</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-12-25T00:49:01.784Z</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-12-25T00:49:10.979Z</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-12-25T00:49:13.263Z</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-12-25T00:49:14.576Z</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>46</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:08:52.080Z</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:08:55.684Z</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>47</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:08:56.618Z</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:09:02.503Z</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>48</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:09:03.720Z</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:09:09.856Z</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>74</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:10:44.632Z</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:10:45.658Z</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>75</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:10:54.657Z</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:11:55.108Z</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>60451</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>76</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:13:31.037Z</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:13:32.458Z</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>77</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:13:38.661Z</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:13:45.890Z</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>78</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:14:09.134Z</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:14:12.041Z</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>79</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:13:59.575Z</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:15:01.319Z</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>61744</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>80</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:16:23.023Z</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:16:29.621Z</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>81</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:20:35.494Z</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:20:39.779Z</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>82</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:20:46.921Z</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:20:48.330Z</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>83</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:21:41.490Z</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:21:43.513Z</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>84</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:21:50.618Z</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-12-25T02:21:53.032Z</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>86</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:05:42.246Z</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:05:46.687Z</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>87</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:05:42.246Z</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:05:47.553Z</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>88</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:05:42.246Z</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:05:48.270Z</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>92</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:12:26.093Z</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:40.980Z</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>74887</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>93</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:41.063Z</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:41.904Z</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>94</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:41.995Z</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:42.522Z</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>95</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:42.589Z</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:43.170Z</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>96</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:43.242Z</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:14:29.070Z</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>97</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:43.242Z</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:15:15.820Z</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>92578</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>99</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:15:15.888Z</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:18:43.519Z</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>207631</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>100</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:15:15.888Z</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:18:50.759Z</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>214871</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>101</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:18:50.985Z</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:21:41.917Z</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>170932</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>102</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:22:43.309Z</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:22:48.141Z</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>103</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:22:51.545Z</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:22:57.128Z</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>104</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:22:59.321Z</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:22:59.789Z</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>107</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:23:45.718Z</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:23:52.543Z</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>108</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:24:27.104Z</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:24:31.574Z</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>109</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:24:30.247Z</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:24:32.042Z</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>110</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:24:47.454Z</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:25:02.859Z</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>15405</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>111</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:29:28.318Z</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:29:31.724Z</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>112</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:32:14.861Z</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:32:19.979Z</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>113</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:33:18.066Z</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:33:19.645Z</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>114</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:08.061Z</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:10.058Z</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>115</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:10.195Z</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:11.609Z</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>116</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:13.397Z</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:14.904Z</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>117</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:16.430Z</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:18.303Z</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>118</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:54.663Z</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:58.006Z</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>119</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:54.663Z</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:59.205Z</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>120</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:51:35.834Z</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:54:22.885Z</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>167051</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>121</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:54:53.934Z</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:54:56.007Z</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>122</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:54:58.382Z</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:00.208Z</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>123</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:00.279Z</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:01.596Z</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>124</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:03.345Z</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:05.182Z</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>125</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:05.340Z</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:07.621Z</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>126</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:10.283Z</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:12.406Z</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>127</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:12.483Z</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:13.843Z</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>128</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:13.922Z</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:15.485Z</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>129</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:17.067Z</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:19.267Z</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>130</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:19.346Z</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:25.747Z</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>131</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:29.654Z</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:32.500Z</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>132</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:33.329Z</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:55:34.516Z</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>133</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:14:02.660Z</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:14:04.013Z</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>134</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:14:25.390Z</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:14:26.776Z</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>135</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:14:49.074Z</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:14:49.941Z</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>136</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:03.323Z</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:04.212Z</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>137</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:13.809Z</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:14.526Z</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>138</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:36.444Z</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:37.643Z</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>139</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:38.512Z</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:39.123Z</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>140</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:40.862Z</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:42.588Z</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>141</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:44.361Z</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:44.839Z</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>142</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:45.510Z</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:46.038Z</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>143</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:47.519Z</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:48.138Z</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>144</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:54.909Z</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:15:56.270Z</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>145</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:16:49.505Z</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:16:50.871Z</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>146</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:16:52.007Z</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:16:54.866Z</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>147</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:16:56.215Z</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:16:57.316Z</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>148</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:16:57.872Z</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:02.500Z</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>149</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:03.445Z</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:04.850Z</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>150</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:28.119Z</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:30.036Z</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>151</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:42.836Z</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:46.147Z</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>152</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:17:42.836Z</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:06.432Z</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>23596</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>153</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:24.216Z</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:25.313Z</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>154</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:25.374Z</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:26.696Z</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>155</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:26.757Z</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:27.246Z</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>156</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:27.337Z</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:31.065Z</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>157</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:30.744Z</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:38.514Z</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>158</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:27.337Z</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:39.962Z</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>12625</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>159</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:40.020Z</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:42.243Z</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>160</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:42.086Z</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:50.866Z</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>161</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:18:40.020Z</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:19:23.746Z</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>162</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:30:19.021Z</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:30:19.555Z</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>163</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:30:25.780Z</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:30:26.554Z</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>164</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:50:06.474Z</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:50:07.201Z</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>165</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:50:07.773Z</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:50:08.496Z</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>166</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:51:12.380Z</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:51:13.914Z</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>167</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:51:14.635Z</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:51:15.464Z</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>168</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:51:16.407Z</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:51:17.066Z</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>169</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:51:47.787Z</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:52:41.826Z</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>54039</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>170</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:52:41.906Z</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:56:00.291Z</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>198385</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>171</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:56:07.894Z</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:56:09.478Z</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>172</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:56:26.475Z</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:56:29.561Z</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>173</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:56:26.475Z</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:59:53.638Z</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>207163</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>174</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-12-25T06:05:30.626Z</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2023-12-25T06:05:36.227Z</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>175</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-12-25T06:05:30.626Z</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2023-12-25T06:05:46.280Z</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>15654</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>176</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-12-25T05:08:20.928Z</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2023-12-25T06:25:37.158Z</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>4636230</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>177</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-12-25T06:05:48.589Z</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2023-12-25T06:35:10.623Z</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1762034</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>178</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:01:48.486Z</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:01:56.947Z</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>memo</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D146" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="E146" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>aasdfasdf</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2023-12-04 11:27:11.823872</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>adsfasdf</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2023-12-08 12:14:39.979332</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>어쩌고저쩌고</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2023-12-09 13:41:40.761875</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 따르면, 개척전의 미국에서는 농장에서 키우는 되새김 동물과 야생에서 자라는 되새김 동물이 내뿜는 메탄의 양이 오늘날의 82퍼센트 정도였다고 한다. 2003년에 UN 식량농업기구(FAO)와 국제원자력기구(IAEA)는 ‘되새김 동물의 트림, 대기 중의 메탄에서 차지하는 비중 적음’이라는 제목의 보고서를 발표했다. 보고서에서 연구진은 소가 메탄을 많이 배출한다며 온실가스 배출의 주범으로 몰리는 것은 부당하다는 결론을 내렸다.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2023-12-16 13:36:08.459943</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>read_article</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D153" s="1" t="inlineStr">
+        <is>
+          <t>author_info_clicked</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>5</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>7</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>8</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>9</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D164" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>어쩌고</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>3</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>6</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>7</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ㅁㄴㅇㄹ </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>8</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="J1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
         </is>
       </c>
     </row>
@@ -576,107 +5588,1233 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>제목3</t>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>내용3</t>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>read_article</t>
-        </is>
-      </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>제목4</t>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>내용4</t>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>article_id</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>author_info_clicked</t>
-        </is>
-      </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>제목5</t>
+          <t>추가 1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>내용5</t>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:19:43.747Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-12-18T13:30:01.922Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>618175</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:03:57.999Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:04:29.327Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>31328</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:03:37.783Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:03:48.683Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>89</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:09:04.199Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:09:11.227Z</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7028</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>90</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:12:49.793Z</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:33.304Z</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>43511</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:33.395Z</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:35.671Z</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2276</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>98</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:13:37.023Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:17:53.718Z</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>256695</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
+          <t>2023-12-25T01:09:40.754Z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:23:02.112Z</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>11601358</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>제목6</t>
+          <t>ㅁㄴㅇㄹ</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>내용6</t>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>106</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:23:04.391Z</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-12-25T04:23:06.963Z</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="J1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="n">
         <v>2</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:03:36.020Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:08:28.022Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>292002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:09:53.390Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:09.566Z</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>16176</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:11.141Z</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:13.644Z</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2503</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:15.310Z</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:25.593Z</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10283</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:28.338Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:36.434Z</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>8096</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:28.338Z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:38.584Z</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10246</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54</v>
+      </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -685,101 +6823,1160 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>제목7</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>내용7</t>
-        </is>
+          <t>2023-12-25T01:10:28.338Z</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:39.667Z</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>11329</v>
       </c>
     </row>
     <row r="10">
-      <c r="J10" t="n">
-        <v>8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>제목8</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>내용8</t>
-        </is>
+      <c r="A10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:28.338Z</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:10:42.023Z</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>13685</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>feedback</t>
-        </is>
+      <c r="A11" t="n">
+        <v>56</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:13:15.043Z</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:13:17.024Z</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1981</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>article_id</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>feedback</t>
-        </is>
+      <c r="A12" t="n">
+        <v>57</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:13:23.198Z</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:13:26.704Z</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>dd</t>
-        </is>
+          <t>2023-12-25T01:13:52.352Z</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:13:58.453Z</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>6101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:14:35.398Z</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:14:40.698Z</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:14:59.339Z</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:15:03.035Z</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:15:06.785Z</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:15:09.513Z</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:15:26.391Z</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:15:32.108Z</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:15:48.089Z</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:16:10.078Z</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>21989</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:16:12.549Z</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:16:18.693Z</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:19:57.945Z</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:20:01.531Z</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:21:00.676Z</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:21:02.523Z</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:23:44.298Z</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:24:11.632Z</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>27334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>68</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:24:17.070Z</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:24:36.965Z</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>19895</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>69</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:33:28.788Z</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:33:31.735Z</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>70</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:33:50.627Z</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:33:52.179Z</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>71</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:34:00.762Z</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:34:05.192Z</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>72</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:34:25.827Z</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:34:29.858Z</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>73</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:35:25.700Z</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-12-25T01:35:27.405Z</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>memo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ㅇㄹ미아런일</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-12-25 01:16:07.707535</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>179</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:08:58.484Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:09:31.919Z</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>33435</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>가축이 배출하는 메탄, 온실 가스 아니다</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"소의 방귀, 온난화 영향 미미해"    육식을 비난하는 사람들이 제기하는 가장 큰 문제는 소가 트림이나 방귀로 배출하는 메탄이다. 인간 활동으로 인해 배출되는 메탄의 약 40%는 농축산업에서 비롯된다. 소의 소화 과정에서 메탄이 생성되는 것은 사실이므로 일견 일리 있는 주장 같다. 하지만 이산화탄소는 배출된 만큼 남김없이 대기중에 축적되는 반면 메탄은 상대적으로 수명이 짧아 대기 중에 축적되지 않는다. 메탄이 대기에 머무는 시간은 순간에 가깝기 때문에, 다른 온실 가스에 비해 온난화에 미치는 영향은 미미할 수밖에 없다. 따라서 온난화를 멈추기 위해 메탄 배출량을 급격히 줄일 필요가 없다.   게다가 소가 트림할 때 메탄을 배출하는 것은 사실이지만, 이것은 소의 소화 과정에서 자연스럽게 생긴 부산물일 뿐이다. 다른 온실가스와 달리 소가 배출하는 메탄은 자연 순환의 일부이기 때문에 환경에 나쁜 영향을 미치지 않는다. &lt;a href="http://146.56.108.180:5000/article/1"&gt;보충 1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>180</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:09:31.991Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:09:34.740Z</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2749</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 온실 가스 배출의 주된 원인이다. </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    소는 발효를 통해 먹이를 체내에서 처리한다. 이 과정에서 메탄이 생성되는데 트림이나 방귀를 통해 대기로 배출된다. 연구자들은 인간 활동으로 인한 메탄 배출량의 약 40%가 축산업의 직접적인 결과라는 사실을 확인했다.   대기 중 메탄은 수영장 안에 있는 물 두 컵 정도의 양이다. 게다가 메탄은 이산화탄소보다 대기 중에 머무는 시간이 훨씬 짧다. 하지만 메탄의 화학적 형태는 열을 가두는 데 매우 효과적이기 때문에 온난화에 미치는 영향은 훨씬 더 강력하다. 대기에 메탄이 조금만 더 많아져도 지구 온난화에 큰 영향을 미칠 수 있다. 같은 기준으로 비교하면 이산화탄소보다 약 80배 유해하다. 이미 비축된 이산화탄소에 비해 감축 효과가 바로 나타나는 메탄 배출을 급격히 줄여야 한다.   육식은 메탄을 많이 배출할 뿐만 아니라 메탄을 흡수할 삼림을 파괴하고 있다. 브라질은 상업용 목적으로 2억마리의 소를 사육하는 세계 최대의 쇠고기 수출국이다. 아마존에서 지난 6년간(2017~2022) 브라질 아마존 열대우림에서 8억그루의 나무가 베어졌다는 언론의 탐사보도가 있었다. 파괴된 열대우림의 면적은 서울의 28배 크기에 해당한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>181</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:09:43.525Z</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:09:48.874Z</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>5349</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 낭비를 초래하지 않는다. </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    최근 몇 년 새 소고기 산업이 유난히 물 낭비가 심하다는 비판의 목소리가 불거졌다. 한 연구에 의하면 소고기 1kg을 만들기 위해 필요한 물의 양은 약 10만 리터다. 또 물을 사용해 생산한 곡물의 대부분을 가축의 사료로 사용한다고 주장한다. 채식주의자들과 환경단체들이 이 점을 육식, 특히 소고기 생산에 대한 비난의 골자로 삼았다.   하지만 통계 자료에 의하면 한 해 생산된 옥수수의 10%만이 가축에 쓰인다. 게다가 물 사용을 계산하는 방식도 틀렸다. 앞서 제시한 논문은 소가 먹는 사료 1킬로그램을 생산하는데 1000리터의 물이 소비된다고 가정했다. 하지만 이 물의 약 92%는 빗물이다. 즉 소가 없었더라도 자연적으로 내렸을 비라는 뜻이다. 미국의 사료는 대부분 관개 없이 자연 빗물로 생산된다. 하지만 위의 수치를 대하는 사람의 대부분은 이 물을 인위적으로 끌어온 물로 생각하게 되어 물 낭비의 원인으로 소를 탓하게 된다.    소는 물 낭비의 원인이 아니라 오히려 해법이다. 비가 농경지보다 목초지에 내리는 것이 생태계에 훨씬 유익하기 때문이다. 따라서 소를 키우는 목초지는 비가 별로 안 내리는 건조한 환경에서 특히 중요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>182</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:09:49.175Z</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:09:53.842Z</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">육식이 물 부족을 부른다. </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    물 발자국은 제품 생산 과정에서 직‧간접적으로 사용되는 물의 총량을 뜻한다. 소를 사육하기 위해서는 막대한 양의 물이 소요되는데, 연구에 따르면 식품 1kg 생산 시 소고기의 물 발자국은 채소의 50배에 달한다. 농축산업이 전체 담수 사용량의 70%를 차지하는데, 이는 대부분 육류에 사용된다.  연구에 따르면 미국 옥수수의 약 87%가 물이 부족한 지역에서 재배된다. 인위적으로 끌어온 물에 상당히 의존하는 것이다. 이런 취약 지역에서는 지하수를 끌어올려 사용한다. 현재 미국 옥수수 작물의 약 50%가 사료로 사용되며, 가축이 늘어남에 따라 사료도 더 많이 필요해질 것이다. 강수량이 적은 지역에서는 관개가 꼭 필요하며, 강수량이 많더라도 가뭄은 언제든 발생할 수 있다. 따라서 관개 면적의 비율은 계속 증가하고 있다.   물 발자국 중에서도 오염시킨 물을 정화하는 데 필요한 물의 양을 회색 물 발자국이라고 하는데 축산업은 특히 회색 물 발자국이 클 수밖에 없다. 따라서 육식은 채식에 비해 수질 오염에 큰 영향을 미친다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>183</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:10:06.240Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:11:11.950Z</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>65710</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>추가 1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>184</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:11:12.158Z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:11:55.067Z</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>42909</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄴㄹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>memo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>육식</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:09:29.405951</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㄹㅁㅇㄹ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:09:46.604736</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ㅇㅇ</t>
-        </is>
+          <t>ㅁㄴㅇㄹㅁㅁㅁㅁㅁㅁㅁ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:11:09.401887</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>유ㅜㄱ식 피드백</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>추가1피드백</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>article_id</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
